--- a/SL_v1/Data/SL_v1_model_setup.xlsx
+++ b/SL_v1/Data/SL_v1_model_setup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parameter</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagrass</t>
   </si>
 </sst>
 </file>
@@ -494,15 +488,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -519,21 +504,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -541,10 +526,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -552,23 +537,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SL_v1/Data/SL_v1_model_setup.xlsx
+++ b/SL_v1/Data/SL_v1_model_setup.xlsx
@@ -1,84 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\SL_v1\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199846A-4BB1-44BA-A491-277E8742BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long_Names" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_Order" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Parameter_Order" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Long_Names" sheetId="1" r:id="rId1"/>
+    <sheet name="Section_Order" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameter_Order" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Lucie Estuary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oysters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>St. Lucie Estuary</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Layer_name</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>KML_Name</t>
+  </si>
+  <si>
+    <t>SL-Central</t>
+  </si>
+  <si>
+    <t>SL-North</t>
+  </si>
+  <si>
+    <t>SL-South</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +133,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,14 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -432,19 +460,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -454,55 +484,67 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -513,41 +555,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/SL_v1/Data/SL_v1_model_setup.xlsx
+++ b/SL_v1/Data/SL_v1_model_setup.xlsx
@@ -1,103 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\SL_v1\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199846A-4BB1-44BA-A491-277E8742BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Long_Names" sheetId="1" r:id="rId1"/>
-    <sheet name="Section_Order" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameter_Order" sheetId="3" r:id="rId3"/>
+    <sheet name="Long_Names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Section_Order" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Parameter_Order" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FLOysters" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Data not included" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>LongName</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>St. Lucie Estuary</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Layer_name</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>KML_Name</t>
-  </si>
-  <si>
-    <t>SL-Central</t>
-  </si>
-  <si>
-    <t>SL-North</t>
-  </si>
-  <si>
-    <t>SL-South</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is_Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Lucie Estuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KML_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL-Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL-North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL-South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oysters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oysters in Florida GSI layer. Source FWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,15 +167,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,14 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,21 +485,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -485,111 +508,271 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>